--- a/va_facility_data_2025-02-20/Morristown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Morristown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Morristown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Morristown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R84aa12ff1a784584a305bacb27356503"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raa035462a0a4435eaa074ad6b57574b1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R37f1e977d3864a548935f56ed95b4872"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R04846574ad324cdaa8ef884e3822bf0a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbba82329e6754bb59b5994231c7e9011"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R80b35dc4fe4a4988bed40ad0ae620609"/>
   </x:sheets>
 </x:workbook>
 </file>
